--- a/flash_cards/math/4/flash_data.xlsx
+++ b/flash_cards/math/4/flash_data.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">Теорема о среднем</t>
   </si>
   <si>
-    <t xml:space="preserve">Формула Ньютона-Лейбница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критерий Дарбу</t>
+    <t xml:space="preserve">Теорема: Формула Ньютона-Лейбница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Критерий Дарбу</t>
   </si>
   <si>
     <t xml:space="preserve">Множество интегрируемых функций</t>
@@ -37,16 +37,16 @@
     <t xml:space="preserve">Лемма о верхней и нижней сумме Дарбу</t>
   </si>
   <si>
-    <t xml:space="preserve">Свойство линейности</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разбиение отрезка, мелкость разбиения, отмеченное разбиение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интегральная сумма</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интегрируемая по Риману функция</t>
+    <t xml:space="preserve">Теорема: Свойство линейности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Разбиение отрезка, мелкость разбиения, отмеченное разбиение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Интегральная сумма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Интегрируемая по Риману функция</t>
   </si>
   <si>
     <t xml:space="preserve">Лемма о последовательности отмеченных разбиений</t>
@@ -55,40 +55,40 @@
     <t xml:space="preserve">Лемма об ограниченности интегрируемой функции</t>
   </si>
   <si>
-    <t xml:space="preserve">Интегрирование по частям</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свойство монотонности</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свойство аддитовности по отрезкам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Верхняя и нижняя сумма Дарбу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интегрируемость непрерывной функции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интегрируемость монотонной функции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измельчение разбиения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монотонность измельчения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Верхний и нижний интегралы Дарбу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интегралы Дарбу являются числами, причем нижний не больше верхнего</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Связб сумм Дарбу и интегралов Дарбу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интегрируемость на отрезке функции ограниченной на отрезке и интегрируемой на любом подотрезке</t>
+    <t xml:space="preserve">Теорема: Интегрирование по частям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Свойство монотонности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Свойство аддитовности по отрезкам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Верхняя и нижняя сумма Дарбу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Интегрируемость непрерывной функции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Интегрируемость монотонной функции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Измельчение разбиения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лемма: Монотонность измельчения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Верхний и нижний интегралы Дарбу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лемма: Интегралы Дарбу являются числами, причем нижний не больше верхнего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лемма: Связь сумм Дарбу и интегралов Дарбу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Интегрируемость на отрезке функции ограниченной на отрезке и интегрируемой на любом подотрезке</t>
   </si>
 </sst>
 </file>
@@ -464,8 +464,8 @@
   </sheetPr>
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
